--- a/Test Data Driven/AI-Generated/Common/browseCategoriesAndAddToCart.xlsx
+++ b/Test Data Driven/AI-Generated/Common/browseCategoriesAndAddToCart.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,110 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 PlusFrom:$ 1,200.00$</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Increased</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>\31 52173-case-650</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>\31 52174-case-655</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 PlusFrom:$ 1,200.00$</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Increased</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>\31 52173-case-650</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>\31 52174-case-655</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
